--- a/data kuota kuisioner.xlsx
+++ b/data kuota kuisioner.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robin Kenobi</t>
+          <t>Yolla Putri</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>082249700257</t>
+          <t>082299845281</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tiurmaida Berlianti Lumban Tobing </t>
+          <t>Ahmad Afdhal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>081317657568</t>
+          <t>085263422340</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muhammad Alfaridza Maulana</t>
+          <t xml:space="preserve">Muhammad Tijan Abdurrahman </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>081572932153</t>
+          <t>082298343466</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Farhan Alwahid</t>
+          <t>Rozi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0895359710593</t>
+          <t>087761736314</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aidityas Adhakim</t>
+          <t>Teresa Sheila Dinda</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>087721827928</t>
+          <t>085777532119</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashabri Vanya Yardan </t>
+          <t xml:space="preserve">Malino Vebiola Rajagukguk </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>081286237218</t>
+          <t>082272103812</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vionna Febryany</t>
+          <t>Ade Cahyaning Palupi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>082281273624</t>
+          <t>08999070598</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Putri Salsabila Al Abrar</t>
+          <t>Estya Malika</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>082173254419</t>
+          <t>081364446430</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>kumara daffa</t>
+          <t>Fachrurrozi Maulana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>082261108710</t>
+          <t>081298592501</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Patrick Fitzgerald Joel Kalesaran </t>
+          <t>muhammad farhan surbakti</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>081262773532</t>
+          <t>082162201020</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Renaldi Arya Firmansyah</t>
+          <t>Cecilia Maha Putri</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>081310631102</t>
+          <t>085326488829</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>muhammad izzaldin</t>
+          <t>Firdausa Azzahra Subagyo Putri</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0815-8444-8292</t>
+          <t>081228600531</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Reynol Julius Sadewo</t>
+          <t>Ivan Ezra Putra</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>082272769391</t>
+          <t>082112504713</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nayla Azhalia Maritza</t>
+          <t>Zayed Hameed Muhammad</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>081287265978</t>
+          <t>082213493696</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cecilia Maha Putri</t>
+          <t>Gracela Helsa Mogi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>085326488829</t>
+          <t>082251211505</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nabilla Zulfa Afifah</t>
+          <t>Hafiz Alazra Ghemanik Harda</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>082331026208</t>
+          <t>081273301088</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ivan Ezra Putra</t>
+          <t>Muhammad Adhitya Chandra Hariyono</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>082112504713</t>
+          <t>085240604150</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>muthia yuniar jabar kasiaheng</t>
+          <t>Muhammad Raka Aryaputra Afiananto</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>081347146494</t>
+          <t>082242661742</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>asyshifa cantika a.t</t>
+          <t xml:space="preserve">Putri Alissahnu Rahman </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>081283040456</t>
+          <t>085711816171</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hicha Septemy A.W.S.</t>
+          <t>SITI KHASANAH</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>081241459277</t>
+          <t>085213598017</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ruri Nurhidayah</t>
+          <t>Hicha Septemy A.W.S.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0895380690405</t>
+          <t>081241459277</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Maria Nita Ayuadiarti</t>
+          <t>YULIANTI TIOPANI SIMBOLON</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>082112309998</t>
+          <t>0895621047265</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dimas AryaPutra Ahmadi</t>
+          <t>Sindy Dwiyanti Pramudyta</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>087764786680</t>
+          <t>088221916474</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Muhammad Hussein Arya Kusuma</t>
+          <t>Muhammad Rafif Ardyansyah</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>081211131239</t>
+          <t>087874351499</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>syakira nur ramadhan</t>
+          <t>Louis pratama</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>081287358751</t>
+          <t>081282094244</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aribia Razzina Ainun Nisa</t>
+          <t>CIKA VALENCIA HUTAGALUNG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>081292677664</t>
+          <t>081388820009</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZAKIYAH MAQFIRAH</t>
+          <t>Verena Pruedira Narensa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>082273632816</t>
+          <t>081319834236</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Suci Rahmawati</t>
+          <t>Seftyan Pamungkas Junaedi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>081280659237</t>
+          <t>081290758086</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AKMAL AL MALIK</t>
+          <t>Andi Mutmainnah Jaya</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>081286897531</t>
+          <t>085725870872</t>
         </is>
       </c>
     </row>
